--- a/src/test/resources/demoCommon.xlsx
+++ b/src/test/resources/demoCommon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="4440"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="8595" windowHeight="4440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +250,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -309,6 +317,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -616,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -858,7 +867,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,12 +921,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -984,7 +993,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,10 +1003,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1027,6 +1036,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
